--- a/nasdaq_db/hurricaneDB.xlsx
+++ b/nasdaq_db/hurricaneDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alona\Documents\GitHub\nasdaq_hurricane_DB\nasdaq_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AC2068-FF5E-4EE9-9509-C7301BA4CD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBB93AA-F0E2-4F43-B051-181DC37A7993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{30F573E2-D7D3-4D50-AD05-1B0A1B5769B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -200,7 +200,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -270,14 +270,14 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -289,7 +289,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A7611E-C2B4-48F8-84F2-EF957CAE4CC4}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A41" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -654,8 +654,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+      <c r="A3" s="2">
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
